--- a/biology/Botanique/Arbre_d'Anne_Frank/Arbre_d'Anne_Frank.xlsx
+++ b/biology/Botanique/Arbre_d'Anne_Frank/Arbre_d'Anne_Frank.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Arbre_d%27Anne_Frank</t>
+          <t>Arbre_d'Anne_Frank</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L’Arbre d'Anne Frank (en néerlandais : Anne Frankboom) était un marronnier du centre-ville d'Amsterdam qui est notable pour être cité dans Le Journal d'Anne Frank. Anne Frank a décrit l'arbre depuis le bâtiment — Maison Anne Frank — où elle et sa famille se cachaient des nazis pendant la Seconde Guerre mondiale.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Arbre_d%27Anne_Frank</t>
+          <t>Arbre_d'Anne_Frank</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,10 +524,12 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'arbre, d'une hauteur de 20 mètres et âgé de 160 à 180 ans[1], luttait depuis des années contre un champignon et une infestation de mites. Déclaré à abattre par la mairie, il fut sauvegardé et consolidé par une armature à la suite d'une mobilisation citoyenne[1]. Le 23 août 2010, l'arbre a été abattu par une tempête[1], rompant son tronc à environ un mètre du sol.
-Des marrons avaient été prélevés dès 2005 pour permettre la culture de jeunes arbres, dont un au jardin Anne-Frank de Paris[1]. Un autre est planté en face de la mairie du 3e arrondissement de Lyon, capitale de la résistance.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'arbre, d'une hauteur de 20 mètres et âgé de 160 à 180 ans, luttait depuis des années contre un champignon et une infestation de mites. Déclaré à abattre par la mairie, il fut sauvegardé et consolidé par une armature à la suite d'une mobilisation citoyenne. Le 23 août 2010, l'arbre a été abattu par une tempête, rompant son tronc à environ un mètre du sol.
+Des marrons avaient été prélevés dès 2005 pour permettre la culture de jeunes arbres, dont un au jardin Anne-Frank de Paris. Un autre est planté en face de la mairie du 3e arrondissement de Lyon, capitale de la résistance.
 </t>
         </is>
       </c>
